--- a/data/hospital_admittance_17062020.xlsx
+++ b/data/hospital_admittance_17062020.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Library/Mobile Documents/com~apple~CloudDocs/Studie/Kandidat/1. semester/Stochastic Simulation/Projekt/project_code/PandemicModelling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F9589E-F451-FC41-A319-5F8554ABB9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA4A73E-9D03-1545-B0EB-11A1D38DEA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="460" windowWidth="28240" windowHeight="16600" activeTab="2" xr2:uid="{F7886133-991A-2544-BB32-7645CF8CEC57}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16600" activeTab="2" xr2:uid="{F7886133-991A-2544-BB32-7645CF8CEC57}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
     <sheet name="Intensiv" sheetId="2" r:id="rId2"/>
     <sheet name="Dødsfald" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Dødsfald mænd</t>
+  </si>
+  <si>
+    <t>Dødsfald</t>
+  </si>
+  <si>
+    <t>Dødsfald (Ratio)</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:E12" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D12" si="0">C3/B3</f>
         <v>2.3769100169779286E-2</v>
       </c>
       <c r="E3" t="s">
@@ -787,7 +793,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F204C81-B380-7949-A6D7-8BA6BDC7A2E5}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,187 +1031,179 @@
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33">
+      <c r="B2">
         <v>8736</v>
       </c>
-      <c r="C33">
+      <c r="C2">
         <v>17</v>
       </c>
-      <c r="D33">
-        <f>C33/B33</f>
+      <c r="D2">
+        <f>C2/B2</f>
         <v>1.945970695970696E-3</v>
       </c>
-      <c r="E33">
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="F33">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="G33">
+      <c r="G2">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
+      <c r="B3">
         <v>1409</v>
       </c>
-      <c r="C34">
+      <c r="C3">
         <v>58</v>
       </c>
-      <c r="D34">
-        <f t="shared" ref="D34:D37" si="0">C34/B34</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3/B3</f>
         <v>4.1163946061036197E-2</v>
       </c>
-      <c r="E34">
+      <c r="E3">
         <v>44</v>
       </c>
-      <c r="F34">
+      <c r="F3">
         <v>22</v>
       </c>
-      <c r="G34">
+      <c r="G3">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35">
+      <c r="B4">
         <v>1033</v>
       </c>
-      <c r="C35">
+      <c r="C4">
         <v>172</v>
       </c>
-      <c r="D35">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>0.1665053242981607</v>
       </c>
-      <c r="E35">
+      <c r="E4">
         <v>143</v>
       </c>
-      <c r="F35">
+      <c r="F4">
         <v>49</v>
       </c>
-      <c r="G35">
+      <c r="G4">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36">
+      <c r="B5">
         <v>816</v>
       </c>
-      <c r="C36">
+      <c r="C5">
         <v>227</v>
       </c>
-      <c r="D36">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>0.27818627450980393</v>
       </c>
-      <c r="E36">
+      <c r="E5">
         <v>192</v>
       </c>
-      <c r="F36">
+      <c r="F5">
         <v>99</v>
       </c>
-      <c r="G36">
+      <c r="G5">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37">
+      <c r="B6">
         <v>256</v>
       </c>
-      <c r="C37">
+      <c r="C6">
         <v>124</v>
       </c>
-      <c r="D37">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.484375</v>
       </c>
-      <c r="E37">
+      <c r="E6">
         <v>105</v>
       </c>
-      <c r="F37">
+      <c r="F6">
         <v>84</v>
       </c>
-      <c r="G37">
+      <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B38">
-        <f>SUM(B33:B37)</f>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
         <v>12250</v>
       </c>
-      <c r="C38">
-        <f>SUM(C33:C37)</f>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
         <v>598</v>
       </c>
-      <c r="D38">
-        <f t="shared" ref="D38" si="1">C38/B38</f>
+      <c r="D7">
+        <f t="shared" ref="D7" si="1">C7/B7</f>
         <v>4.8816326530612242E-2</v>
       </c>
-      <c r="E38">
-        <f>SUM(E33:E37)</f>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
         <v>496</v>
       </c>
-      <c r="F38">
-        <f>SUM(F33:F37)</f>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
         <v>259</v>
       </c>
-      <c r="G38">
-        <f>SUM(G33:G37)</f>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
         <v>339</v>
       </c>
     </row>
